--- a/Outputs/Gas Transfer Velocity/Raymond Paper Method7_18.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Paper Method7_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437E0CC-3939-4AD1-B2C0-E45BCBCA6C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A32A4-3E10-4215-BC54-34623865660F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{E233504B-0B55-4246-9B4B-72EFC75EC46E}"/>
   </bookViews>

--- a/Outputs/Gas Transfer Velocity/Raymond Paper Method7_18.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Paper Method7_18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A32A4-3E10-4215-BC54-34623865660F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38A615-467D-473D-988E-90AB6CDD24E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{E233504B-0B55-4246-9B4B-72EFC75EC46E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Position</t>
   </si>
@@ -147,10 +147,19 @@
     <t>Velocity (m/s)</t>
   </si>
   <si>
-    <t>K600 (m/ day)</t>
-  </si>
-  <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>K600 Avg. (m/day)</t>
+  </si>
+  <si>
+    <t>K600 min (m/day)</t>
+  </si>
+  <si>
+    <t>K600 max (m/day)</t>
+  </si>
+  <si>
+    <t>Depth/2 (m)</t>
   </si>
 </sst>
 </file>
@@ -503,21 +512,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61FEB14-9CCA-4271-93D5-A81362C983DC}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,16 +549,25 @@
         <v>38</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,18 +585,30 @@
         <v>0.08</v>
       </c>
       <c r="F2">
+        <f>E2/2</f>
+        <v>0.04</v>
+      </c>
+      <c r="G2">
         <v>16.5</v>
       </c>
-      <c r="G2">
-        <f>((F2*D2)^0.89)*E2*5037</f>
-        <v>632.96236321410868</v>
-      </c>
       <c r="H2">
-        <f>B2*E2</f>
-        <v>0.40803600000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <f>((G2*D2)^0.89)*(F2^0.54)*5037</f>
+        <v>1391.2343608637666</v>
+      </c>
+      <c r="I2">
+        <f>((G2*D2)^0.87)*(F2^0.51)*4433</f>
+        <v>1334.9259518025901</v>
+      </c>
+      <c r="J2">
+        <f>((G2*D2)^0.91)*(F2^0.57)*5641</f>
+        <v>1429.0694789530653</v>
+      </c>
+      <c r="K2">
+        <f>B2*F2</f>
+        <v>0.20401800000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -590,18 +626,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F35" si="1">E3/2</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G35" si="1">((F3*D3)^0.89)*E3*5037</f>
-        <v>1002.4373779956067</v>
-      </c>
       <c r="H3">
-        <f t="shared" ref="H3:H35" si="2">B3*E3</f>
-        <v>0.83377000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H3:H35" si="2">((G3*D3)^0.89)*(F3^0.54)*5037</f>
+        <v>2342.9118869769</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I35" si="3">((G3*D3)^0.87)*(F3^0.51)*4433</f>
+        <v>2227.2154386046109</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J35" si="4">((G3*D3)^0.91)*(F3^0.57)*5641</f>
+        <v>2429.1795286412193</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K35" si="5">B3*F3</f>
+        <v>0.41688500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -619,18 +667,30 @@
         <v>0.05</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4">
         <v>19</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>4008.623821503887</v>
-      </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.13270000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10937.36998023321</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>10103.981516870768</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>11669.256681085997</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>6.6350000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -648,18 +708,30 @@
         <v>0.2</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G5">
         <v>7.2</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1773.9897237458538</v>
-      </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>1.5860000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2558.1211247529536</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2381.9049757209318</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>2707.8693454604077</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -677,18 +749,30 @@
         <v>0.08</v>
       </c>
       <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>190.46756128652524</v>
-      </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.75360000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>418.64261019593084</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>412.686905748002</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>418.57771138103402</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.37680000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -706,18 +790,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7">
         <v>19</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>264.50264064571491</v>
-      </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.28658000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>618.19959481632657</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>605.53304448987683</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>622.05604311188529</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.14329000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -735,18 +831,30 @@
         <v>0.05</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>607.99148825154737</v>
-      </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.45925000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1658.8804906480393</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1598.826844965175</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1696.4407534961442</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.22962500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -764,18 +872,30 @@
         <v>0.25</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>905.86828546443667</v>
-      </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>2.7075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1178.8443153922931</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1112.4729781424755</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>1231.2134911248061</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.35375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -793,18 +913,30 @@
         <v>0.04</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G10">
         <v>13.3</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>369.98335665542305</v>
-      </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.21392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1118.6092197223022</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1092.0482038566108</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>1129.340516973047</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0.10696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -822,18 +954,30 @@
         <v>0.1</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="G11">
         <v>15.7</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1439.3961467881634</v>
-      </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.87870000000000015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2855.1185000848177</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2684.9329148226611</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>2992.4352815293482</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.43935000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -851,18 +995,30 @@
         <v>0.08</v>
       </c>
       <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G12">
         <v>5.8</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>364.58567695414337</v>
-      </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.63968000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>801.34957579745628</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>778.50727218186682</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>813.00137161389591</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0.31984000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -880,18 +1036,30 @@
         <v>0.21</v>
       </c>
       <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.105</v>
+      </c>
+      <c r="G13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>831.80229933059741</v>
-      </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>1.5027599999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1172.8515423559199</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1110.3977252081195</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1221.0050284926572</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0.75137999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -909,18 +1077,30 @@
         <v>0.09</v>
       </c>
       <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G14">
         <v>7.5</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>334.46877979230408</v>
-      </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>1.0002599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>696.38247590058609</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>677.24351324216218</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>705.7660168228216</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.50012999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -938,18 +1118,30 @@
         <v>0.33</v>
       </c>
       <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G15">
         <v>1.5</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>2846.7314919631226</v>
-      </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>1.00386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3260.4226069253673</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2992.4324633916985</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>3501.3325668790599</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.50192999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -967,18 +1159,30 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G16">
         <v>1.4</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>878.03545909061222</v>
-      </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>2.4609200000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1084.583924169478</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1023.364209864544</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>1132.9377057470085</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1.2304600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -996,18 +1200,30 @@
         <v>0.2</v>
       </c>
       <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G17">
         <v>0.7</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>498.21816836354367</v>
-      </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.57779999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>718.43844649524772</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>688.31440705437592</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>739.09829374780873</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0.28889999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1025,18 +1241,30 @@
         <v>0.23</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.115</v>
+      </c>
+      <c r="G18">
         <v>1.6</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>832.58636955775012</v>
-      </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>1.08813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1125.8441990827484</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1065.1412294069387</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>1172.8955068302625</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0.54406500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1054,18 +1282,30 @@
         <v>0.03</v>
       </c>
       <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>177.91382844840317</v>
-      </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.64427999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>614.01323205767994</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>610.6989085302032</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>608.46870478414212</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0.32213999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1083,18 +1323,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G20">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>197.88386261882491</v>
-      </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.60291000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>462.49717353673998</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>455.98453834763592</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>462.35757635420845</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0.30145500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1112,18 +1364,30 @@
         <v>0.06</v>
       </c>
       <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="G21">
         <v>13.5</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>843.52500440405186</v>
-      </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.38855999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2116.372881378586</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2022.0268604977689</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2183.2696861419699</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0.19427999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1141,18 +1405,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G22">
         <v>10.199999999999999</v>
       </c>
-      <c r="G22">
-        <f>((F22*D22)^0.89)*E22*5037</f>
-        <v>987.71752423324824</v>
-      </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.40551000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2308.5084208737612</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2195.2404994117501</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>2392.71377140297</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0.20275500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1170,18 +1446,30 @@
         <v>0.04</v>
       </c>
       <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G23">
         <v>7</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>317.90757620843652</v>
-      </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.23784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>961.16308847244215</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>941.54477469237145</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>967.08159991702087</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0.11892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1199,18 +1487,30 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F24">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G24">
         <v>7.6</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>417.51589704157965</v>
-      </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>1.2462800000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>709.41100600209677</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>684.20457532446471</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>724.96960572642229</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0.62314000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1228,18 +1528,30 @@
         <v>0.08</v>
       </c>
       <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G25">
         <v>11.1</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>580.7951465379565</v>
-      </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.26911999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1276.5722125774903</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1227.2744803081589</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>1308.7569448600455</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0.13455999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1257,18 +1569,30 @@
         <v>0.05</v>
       </c>
       <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G26">
         <v>8</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>511.27597165649206</v>
-      </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.37080000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1394.9960667330381</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1349.7400952081018</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>1421.0381791984744</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0.18540000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1286,18 +1610,30 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G27">
         <v>1.9</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>277.06717988482228</v>
-      </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>1.3344800000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>342.24427511080694</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>331.40575007285327</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>348.35518120493919</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0.66724000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1315,18 +1651,30 @@
         <v>0.1</v>
       </c>
       <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="G28">
         <v>5.9</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>694.2195012743756</v>
-      </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0.38840000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1377.0211526763446</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1316.3349009108292</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>1419.7921030471373</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0.19420000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1344,18 +1692,30 @@
         <v>0.32</v>
       </c>
       <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>3.2483200000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>1.62416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1373,18 +1733,30 @@
         <v>0.2</v>
       </c>
       <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G30">
         <v>1.4</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>182.11366288100837</v>
-      </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0.63719999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>262.61077044930323</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>257.35451052390135</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>264.12117012994503</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0.31859999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1402,18 +1774,30 @@
         <v>0.18</v>
       </c>
       <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="G31">
         <v>0.9</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>32.843514748823054</v>
-      </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>1.5769799999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>49.712783073706312</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>50.669718131880593</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>48.072598152910608</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>0.78848999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1431,18 +1815,30 @@
         <v>0.2</v>
       </c>
       <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
+      <c r="H32">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>1.7076000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0.85380000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1460,18 +1856,30 @@
         <v>0.12</v>
       </c>
       <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="G33">
         <v>1.8</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>189.93239937139543</v>
-      </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0.5544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>346.43318273619542</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>340.48546152908739</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>347.41640682643555</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.2772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1489,18 +1897,30 @@
         <v>0.12</v>
       </c>
       <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="G34">
         <v>4.2</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>39.207492127118861</v>
-      </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>1.0002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71.513740307898885</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>72.822738853649454</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>69.218455872321272</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0.50009999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1518,15 +1938,33 @@
         <v>0.08</v>
       </c>
       <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G35">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>313.10185996935468</v>
-      </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>0.32016</v>
+        <v>688.18952177157246</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>670.86390388563223</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>695.81152188977273</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0.16008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>SUM(C2:C35)</f>
+        <v>25.595771999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Gas Transfer Velocity/Raymond Paper Method7_18.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Paper Method7_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38A615-467D-473D-988E-90AB6CDD24E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37422D-CE3F-4AE4-ABF7-6F56739BEB23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{E233504B-0B55-4246-9B4B-72EFC75EC46E}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61FEB14-9CCA-4271-93D5-A81362C983DC}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
